--- a/data/Afghanistan BoD.xlsx
+++ b/data/Afghanistan BoD.xlsx
@@ -157,9 +157,6 @@
     <t>Iodine deficiency</t>
   </si>
   <si>
-    <t>Iron-deficiency anemia</t>
-  </si>
-  <si>
     <t>Other nutritional deficiencies</t>
   </si>
   <si>
@@ -514,9 +511,6 @@
     <t>Ischemic stroke</t>
   </si>
   <si>
-    <t>Hemorrhagic stroke</t>
-  </si>
-  <si>
     <t>Hypertensive heart disease</t>
   </si>
   <si>
@@ -1034,6 +1028,12 @@
   </si>
   <si>
     <t>Cause</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>Dietary iron deficiency</t>
   </si>
 </sst>
 </file>
@@ -1937,8 +1937,8 @@
   <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I300" sqref="I300"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,22 +1953,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D2" s="4">
         <v>71538.760351200006</v>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4">
         <v>335.91991891100002</v>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4">
         <v>1299.25991565</v>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4">
         <v>3205.5234945399998</v>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="4">
         <v>14612.7412169</v>
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="4">
         <v>8555.1406746800003</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4">
         <v>56447.234338900002</v>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D10" s="4">
         <v>105265.246031</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D11" s="4">
         <v>22578.174648799999</v>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D12" s="4">
         <v>2341.4109419199999</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" s="4">
         <v>18559913.783799998</v>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D14" s="4">
         <v>1782.7626544100001</v>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" s="4">
         <v>48654.350705500001</v>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D16" s="4">
         <v>654.84159577200001</v>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4">
         <v>15821.108124</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D18" s="4">
         <v>1360.5742618100001</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D19" s="4">
         <v>141942.952854</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="4">
         <v>5263.8341397300001</v>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D21" s="4">
         <v>18952.7691959</v>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" s="4">
         <v>138.33828790600001</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="4">
         <v>25999.9278939</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D24" s="4">
         <v>22752.292829000002</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="4">
         <v>183363.12229900001</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D26" s="4">
         <v>6002.3468777799999</v>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D27" s="4">
         <v>4991.5831607800001</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D28" s="4">
         <v>20093.885254600002</v>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D29" s="4">
         <v>42846.178083600003</v>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D30" s="4">
         <v>9528.5589245400006</v>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D31" s="4">
         <v>44216.406187400004</v>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="4">
         <v>10869.6593318</v>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="4">
         <v>29461.172381799999</v>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="4">
         <v>100927.114311</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="4">
         <v>5038.1291357299997</v>
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D36" s="4">
         <v>1519.02133751</v>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D37" s="4">
         <v>17425.006518099999</v>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="4">
         <v>2257809.9707300002</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D39" s="4">
         <v>923.65963041199996</v>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D40" s="4">
         <v>7991.6122691500004</v>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D41" s="4">
         <v>16932.902374599998</v>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="4">
         <v>1074.07271578</v>
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="4">
         <v>650879.46664700005</v>
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="4">
         <v>26416.737029299999</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="4">
         <v>2051.98247446</v>
@@ -2879,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" s="4">
         <v>303585.14319199999</v>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" s="4">
         <v>110021.26331900001</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="4">
         <v>57449.154046900003</v>
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="4">
         <v>35153.148083499997</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D51" s="4">
         <v>100961.577743</v>
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D52" s="4">
         <v>2021.8225789799999</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D53" s="4">
         <v>8914.1155679700005</v>
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D54" s="4">
         <v>180596.87866700001</v>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" s="4">
         <v>379369.57355600002</v>
@@ -3059,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D56" s="4">
         <v>144811.80506899999</v>
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D57" s="4">
         <v>8699.7341744200003</v>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D58" s="4">
         <v>39860.144992000001</v>
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D59" s="4">
         <v>42903.139178899997</v>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D60" s="4">
         <v>53348.7867234</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="4">
         <v>85.076242940200004</v>
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D62" s="4">
         <v>2277.3074083800002</v>
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" s="4">
         <v>47759.957368299998</v>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D64" s="4">
         <v>6588879.1880400004</v>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D65" s="4">
         <v>47097.420551099996</v>
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D66" s="4">
         <v>1616222.9107900001</v>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="4">
         <v>1160913.9082599999</v>
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="4">
         <v>454198.24030300003</v>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="4">
         <v>30024.663833099999</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D70" s="4">
         <v>156851.338674</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" s="4">
         <v>12816.933738899999</v>
@@ -3379,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72" s="4">
         <v>7646.5647506900004</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="4">
         <v>317.040289836</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="4">
         <v>2474.8612561199998</v>
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D75" s="4">
         <v>1184.6592513099999</v>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D76" s="4">
         <v>196199.655134</v>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D77" s="4">
         <v>68024.754032900004</v>
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="4">
         <v>424943.56342999998</v>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D79" s="4">
         <v>975116.68851799995</v>
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D82" s="4">
         <v>46031.080189300003</v>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="4">
         <v>186894.669716</v>
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D85" s="4">
         <v>21909.968842599999</v>
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="4">
         <v>220862.03361400001</v>
@@ -3679,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D87" s="4">
         <v>123697.588557</v>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D88" s="4">
         <v>596.84233433700001</v>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D89" s="4">
         <v>442280.54612100002</v>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D90" s="4">
         <v>23622.301947200001</v>
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="4">
         <v>6398.7033975300001</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D92" s="4">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D93" s="4">
         <v>18639.214696700001</v>
@@ -3839,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D95" s="4">
         <v>6364.8385905599998</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D96" s="4">
         <v>54676.224040699999</v>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D97" s="4">
         <v>518.03415239000003</v>
@@ -3899,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D98" s="4">
         <v>33314.680353099997</v>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D99" s="4">
         <v>95820.963734399993</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D100" s="4">
         <v>14932.548384199999</v>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D101" s="4">
         <v>480.81101881400002</v>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D102" s="4">
         <v>2627.5404634800002</v>
@@ -3999,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D103" s="4">
         <v>155127.12993200001</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D104" s="4">
         <v>13.273540135599999</v>
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D105" s="4">
         <v>7777.8860345200001</v>
@@ -4059,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D106" s="4">
         <v>309869.34237999999</v>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="4">
         <v>496.34131995000001</v>
@@ -4099,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D108" s="4">
         <v>41508.311653600002</v>
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D109" s="4">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D110" s="4">
         <v>1619331.2622799999</v>
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D111" s="4">
         <v>39137.951312999998</v>
@@ -4179,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D112" s="4">
         <v>697.85787443900006</v>
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D113" s="4">
         <v>16904.5684707</v>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D114" s="4">
         <v>10755.83755</v>
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D115" s="4">
         <v>5903.0728716499998</v>
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D116" s="4">
         <v>2.39754365751</v>
@@ -4279,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D117" s="4">
         <v>9776.5558892000008</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D118" s="4">
         <v>9641.6174283300006</v>
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D119" s="4">
         <v>6120.1243665800002</v>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D120" s="4">
         <v>570.18698499699997</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121" s="4">
         <v>2892.3283243199999</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D122" s="4">
         <v>1588.47887393</v>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D123" s="4">
         <v>9822.5763700999996</v>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D124" s="4">
         <v>1768.87948422</v>
@@ -4439,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D125" s="4">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D126" s="4">
         <v>39385.011458300003</v>
@@ -4499,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D128" s="4">
         <v>130558.486856</v>
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>338</v>
       </c>
       <c r="D130" s="4">
         <v>412503.45444</v>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D131" s="4">
         <v>18218.0170908</v>
@@ -4579,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D132" s="4">
         <v>13521.723518299999</v>
@@ -4599,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D133" s="4">
         <v>191.510162385</v>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D134" s="4">
         <v>8953.8136729599992</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D135" s="4">
         <v>542776.77780799998</v>
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D137" s="4">
         <v>21240.905580999999</v>
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D138" s="4">
         <v>524.00322866700003</v>
@@ -4719,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D139" s="4">
         <v>51764.687521</v>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D140" s="4">
         <v>35662.7719641</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D142" s="4">
         <v>3246.6209968500002</v>
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D143" s="4">
         <v>24477.930004999998</v>
@@ -4819,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D144" s="4">
         <v>4018019.26449</v>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D145" s="4">
         <v>370189.40234899998</v>
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D146" s="4">
         <v>5828.2926645500002</v>
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D147" s="4">
         <v>3469.1279406100002</v>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D149" s="4">
         <v>26958.9516215</v>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="D151" s="4">
         <v>127494.88746699999</v>
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D152" s="4">
         <v>1370184.8285600001</v>
@@ -4999,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D153" s="4">
         <v>238376.01220600001</v>
@@ -5019,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D154" s="4">
         <v>4742.1152904999999</v>
@@ -5039,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D155" s="4">
         <v>102.852550483</v>
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D156" s="4">
         <v>10310.690035699999</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D158" s="4">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D160" s="4">
         <v>9.6255485466199993</v>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" s="4">
         <v>98610.569772200004</v>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D162" s="4">
         <v>4959.75579853</v>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D163" s="4">
         <v>22324.745978800001</v>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D164" s="4">
         <v>1513.2181371300001</v>
@@ -5239,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D165" s="4">
         <v>8903.0958899899997</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D166" s="4">
         <v>6384.2384152499999</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D167" s="4">
         <v>5524.19353641</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D168" s="4">
         <v>296388.20036399999</v>
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D169" s="4">
         <v>204043.94253100001</v>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D171" s="4">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D172" s="4">
         <v>1457.0786867899999</v>
@@ -5399,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D173" s="4">
         <v>172577.353187</v>
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D175" s="4">
         <v>823.00630871099997</v>
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D176" s="4">
         <v>1672.91303283</v>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D178" s="4">
         <v>20.133221093300001</v>
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D187" s="4">
         <v>720004.52714999998</v>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D188" s="4">
         <v>2406.2644456899998</v>
@@ -5719,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D189" s="4">
         <v>208980.73533200001</v>
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D190" s="4">
         <v>1689.1605582100001</v>
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D191" s="4">
         <v>552537.48858200002</v>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D192" s="4">
         <v>81583.860301499997</v>
@@ -5799,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D193" s="4">
         <v>142.84665781000001</v>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D194" s="4">
         <v>83764.531979599997</v>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D195" s="4">
         <v>5119.6773772500001</v>
@@ -5859,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D196" s="4">
         <v>4379.8575549500001</v>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D197" s="4">
         <v>433806.26766900002</v>
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D198" s="4">
         <v>4126.9748449099998</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D199" s="4">
         <v>6085.7298441299999</v>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D200" s="4">
         <v>92344.257833299998</v>
@@ -6059,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D206" s="4">
         <v>692985.41297299997</v>
@@ -6079,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D207" s="4">
         <v>159431.42095100001</v>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D208" s="4">
         <v>416464.30702499999</v>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D209" s="4">
         <v>7953015.3312299997</v>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D210" s="4">
         <v>21727.5032799</v>
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D211" s="4">
         <v>2467.5319009499999</v>
@@ -6179,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D212" s="4">
         <v>0.89238899280600004</v>
@@ -6199,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D213" s="4">
         <v>2466.6395119600002</v>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D214" s="4">
         <v>7456.2144051499999</v>
@@ -6259,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D217" s="4">
         <v>114656.756989</v>
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D218" s="4">
         <v>55242.597524299999</v>
@@ -6319,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D219" s="4">
         <v>1274.7377284199999</v>
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D220" s="4">
         <v>30253.637288499998</v>
@@ -6359,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D221" s="4">
         <v>10956.6207313</v>
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D222" s="4">
         <v>79773.704416199995</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D223" s="4">
         <v>21529.442395900001</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D224" s="4">
         <v>8707.7991275799995</v>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D225" s="4">
         <v>245697.72797199999</v>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D226" s="4">
         <v>394345.84873999999</v>
@@ -6479,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D227" s="4">
         <v>20797.343671899998</v>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D228" s="4">
         <v>4589.6612262099998</v>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D229" s="4">
         <v>86500.720352400007</v>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D230" s="4">
         <v>15934.186161</v>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D231" s="4">
         <v>8167.0982869899999</v>
@@ -6579,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D232" s="4">
         <v>27621.973673299999</v>
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D234" s="4">
         <v>64506.749733700002</v>
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D237" s="4">
         <v>32182.808194000001</v>
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D238" s="4">
         <v>87909.506839399997</v>
@@ -6759,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D241" s="4">
         <v>39427.609642000003</v>
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D242" s="4">
         <v>17594.990607899999</v>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D243" s="4">
         <v>1745752.10882</v>
@@ -6819,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D244" s="4">
         <v>2162.03634483</v>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D245" s="4">
         <v>14397.0703973</v>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D246" s="4">
         <v>3382.3718048999999</v>
@@ -6879,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D247" s="4">
         <v>418.22737634499998</v>
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D248" s="4">
         <v>4296.69474627</v>
@@ -6919,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D249" s="4">
         <v>16221.6434869</v>
@@ -6939,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D250" s="4">
         <v>6181.1257888299997</v>
@@ -6959,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D251" s="4">
         <v>6894.8268587800003</v>
@@ -6979,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D252" s="4">
         <v>20846.0700321</v>
@@ -6999,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D253" s="4">
         <v>71693.524234500001</v>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D254" s="4">
         <v>6934.0454035299999</v>
@@ -7039,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D255" s="4">
         <v>8749.6101835299996</v>
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D257" s="4">
         <v>7625.0076522899999</v>
@@ -7099,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D258" s="4">
         <v>11721.9144153</v>
@@ -7119,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D259" s="4">
         <v>7574.9495622699997</v>
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D260" s="4">
         <v>26022.082100899999</v>
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D262" s="4">
         <v>3435.6432372899999</v>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D263" s="4">
         <v>269620.148598</v>
@@ -7219,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D264" s="4">
         <v>65064.121116000002</v>
@@ -7239,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D265" s="4">
         <v>13291.0405307</v>
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D266" s="4">
         <v>1170.05055556</v>
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D267" s="4">
         <v>178124.34371799999</v>
@@ -7299,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D268" s="4">
         <v>89306.404526300001</v>
@@ -7319,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D269" s="4">
         <v>96413.197402899998</v>
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D271" s="4">
         <v>873.48079751199998</v>
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D272" s="4">
         <v>26375.578618200001</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D273" s="4">
         <v>485.237542523</v>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D274" s="4">
         <v>15761.982949900001</v>
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D275" s="4">
         <v>8551.0535198199996</v>
@@ -7479,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D277" s="4">
         <v>2339.4758044700002</v>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D278" s="4">
         <v>11371.7470352</v>
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D279" s="4">
         <v>21535.5249678</v>
@@ -7539,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D280" s="4">
         <v>2264.6731437499998</v>
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D281" s="4">
         <v>262.985438375</v>
@@ -7579,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D282" s="4">
         <v>74450.374849400003</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D283" s="4">
         <v>68981.206905700004</v>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D284" s="4">
         <v>17486.043692700001</v>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D285" s="4">
         <v>920855.12596700003</v>
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D286" s="4">
         <v>12376.8386264</v>
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D288" s="4">
         <v>22190.284417800001</v>
@@ -7719,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D289" s="4">
         <v>116640.509307</v>
@@ -7739,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D290" s="4">
         <v>486829.91165600001</v>
@@ -7759,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D291" s="4">
         <v>11679.5470064</v>
@@ -7779,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D292" s="4">
         <v>104960.96230100001</v>
@@ -7799,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D293" s="4">
         <v>224665.33448600001</v>
@@ -7819,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D294" s="4">
         <v>6345.4567016700003</v>
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D295" s="4">
         <v>199857.737207</v>
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D296" s="4">
         <v>62990.042807400001</v>
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D297" s="4">
         <v>21772.7149049</v>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D298" s="4">
         <v>231.83889032100001</v>
@@ -7919,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D299" s="4">
         <v>245475.11078399999</v>
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D300" s="4">
         <v>83604.626083499999</v>
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D301" s="4">
         <v>59455.157762100003</v>
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D302" s="4">
         <v>180781.85775900001</v>
@@ -7999,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D303" s="4">
         <v>35908.6052948</v>
@@ -8019,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D304" s="4">
         <v>3683.2977687799998</v>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D306" s="4">
         <v>3853.08048121</v>
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D307" s="4">
         <v>27870.0799606</v>
@@ -8099,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D308" s="4">
         <v>6178.3795385699996</v>
@@ -8119,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D309" s="4">
         <v>76982.817548499996</v>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D310" s="4">
         <v>1636.1384490600001</v>
@@ -8159,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D311" s="4">
         <v>941701.19599899999</v>
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D312" s="4">
         <v>450.00782958500002</v>
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D313" s="4">
         <v>435.02049890500001</v>
@@ -8219,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D314" s="4">
         <v>533822.96413500002</v>
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D315" s="4">
         <v>422.93184582599997</v>
@@ -8279,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D317" s="4">
         <v>39591.178432499997</v>
@@ -8299,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D318" s="4">
         <v>970156.89456100005</v>
@@ -8319,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D319" s="4">
         <v>29035.2311477</v>
@@ -8359,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="C321" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D321" s="4">
         <v>21632.3396216</v>
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D322" s="4">
         <v>31642.7208852</v>
@@ -8399,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D323" s="4">
         <v>877.60104417800005</v>
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D324" s="4">
         <v>23391.9572611</v>
@@ -8439,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D325" s="4">
         <v>10151.1264273</v>
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D326" s="4">
         <v>3296.9010082499999</v>
@@ -8499,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D328" s="4">
         <v>4862.17281172</v>
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D329" s="4">
         <v>8364.8937188100008</v>
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D330" s="4">
         <v>31184.543493699999</v>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D332" s="4">
         <v>3442.15360659</v>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="C334" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D334" s="4">
         <v>0</v>
@@ -8639,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="C335" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D335" s="4">
         <v>0</v>
